--- a/Sequences/Name of the sequences.xlsx
+++ b/Sequences/Name of the sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strav\git\bioinformatic\Sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{1847D411-3F61-4EF0-BAEF-8763910EEAEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C04AB-F357-44CE-87AF-5B1C7778933F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>ITALIA</t>
   </si>
@@ -56,15 +54,9 @@
     <t>EPI_ISL_412973</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>hCoV-19/Italy/FVG-ICGEB_S9/2020</t>
   </si>
   <si>
-    <t>P1/Vero E6</t>
-  </si>
-  <si>
     <t>EPI_ISL_417423</t>
   </si>
   <si>
@@ -83,9 +75,6 @@
     <t>hCoV-19/Italy/FVG-ICGEB_S18/2020</t>
   </si>
   <si>
-    <t>Pi/Vero E6</t>
-  </si>
-  <si>
     <t>EPI_ISL_428854</t>
   </si>
   <si>
@@ -113,9 +102,6 @@
     <t>hCoV-19/Russia/Moscow_PMVL-1/2020</t>
   </si>
   <si>
-    <t>Vero E6</t>
-  </si>
-  <si>
     <t>EPI_ISL_421275</t>
   </si>
   <si>
@@ -129,9 +115,6 @@
   </si>
   <si>
     <t>hCoV-19/Russia/Moscow-35I/2020</t>
-  </si>
-  <si>
-    <t>Vero P1</t>
   </si>
   <si>
     <t>EPI_ISL_428852</t>
@@ -260,8 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +271,17 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -370,22 +364,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,10 +376,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -713,481 +708,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.1328125" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="6">
         <v>43859</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="6">
         <v>43881</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="6">
+        <v>43891</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="6">
+        <v>43904</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C6" s="6">
+        <v>43913</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43930</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43948</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43908</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6">
         <v>43904</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43908</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6">
-        <v>43923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="24" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43934</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43934</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43941</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43945</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="6">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="2">
-        <v>43886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="6">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="6">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="6">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="2">
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="C38" s="11">
         <v>43931</v>
       </c>
     </row>
